--- a/insumos/02_listado_act/marco_canasta_08_v1_septiembre.xlsx
+++ b/insumos/02_listado_act/marco_canasta_08_v1_septiembre.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsaraguro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR LLAMBO\ipp_2024\insumos\02_listado_act\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades_CAB-SIPP" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>C104011</t>
   </si>
@@ -57,9 +57,6 @@
     <t>C275003</t>
   </si>
   <si>
-    <t>B081022</t>
-  </si>
-  <si>
     <t>C221101</t>
   </si>
   <si>
@@ -189,10 +186,7 @@
     <t>C192009</t>
   </si>
   <si>
-    <t>Actividades</t>
-  </si>
-  <si>
-    <t>N°</t>
+    <t>codigo_actividad_eco</t>
   </si>
 </sst>
 </file>
@@ -551,470 +545,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
